--- a/models/calculation engines/cbix2/outputs/default/nominal_mine_div_index_specifications.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/nominal_mine_div_index_specifications.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
         <v>0.3625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="F2" t="n">
         <v>0.0675</v>
@@ -611,7 +611,7 @@
         <v>0.67</v>
       </c>
       <c r="L3" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>0.189</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I4" t="n">
         <v>0.08</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>0.189</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I5" t="n">
         <v>0.08</v>
@@ -768,7 +768,7 @@
         <v>0.189</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I6" t="n">
         <v>0.08</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1405,15 +1405,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>180000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MRN wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1462,9 +1460,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>63660.4774535809</v>
       </c>
@@ -1519,15 +1515,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>180000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Rondon do Para wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1576,15 +1570,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>63660.4774535809</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Paragominas wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1633,15 +1625,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>180000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Juruti wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1690,9 +1680,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>63660.4774535809</v>
       </c>
@@ -1747,9 +1735,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>58299.5951417004</v>
       </c>
@@ -1804,9 +1790,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>58299.5951417004</v>
       </c>
@@ -1861,9 +1845,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>180000</v>
       </c>
@@ -1918,9 +1900,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>66728.452270621</v>
       </c>
@@ -1975,9 +1955,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>51858.2541054451</v>
       </c>
@@ -2032,9 +2010,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>51282.0512820513</v>
       </c>
@@ -2089,9 +2065,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>69478.9081885856</v>
       </c>
@@ -2146,9 +2120,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>71794.8717948718</v>
       </c>
@@ -2203,9 +2175,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2258,9 +2228,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>210000</v>
       </c>
@@ -2315,9 +2283,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>180000</v>
       </c>
@@ -2372,9 +2338,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>39886.0398860399</v>
       </c>
@@ -2429,9 +2393,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>180000</v>
       </c>
@@ -2486,9 +2448,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>180000</v>
       </c>
@@ -2543,9 +2503,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>180000</v>
       </c>
@@ -2600,9 +2558,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>39886.0398860399</v>
       </c>
@@ -2657,9 +2613,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>180000</v>
       </c>
@@ -2714,9 +2668,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>180000</v>
       </c>
@@ -2771,9 +2723,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>180000</v>
       </c>
@@ -2828,9 +2778,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>180000</v>
       </c>
@@ -2885,9 +2833,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>180000</v>
       </c>
@@ -2942,9 +2888,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>52447.5524475525</v>
       </c>
@@ -2999,9 +2943,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>52447.5524475525</v>
       </c>
@@ -3056,9 +2998,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>51282.0512820513</v>
       </c>
@@ -3113,11 +3053,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3170,9 +3108,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -3227,9 +3163,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -3284,9 +3218,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -3341,9 +3273,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -3398,9 +3328,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -3455,9 +3383,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -3512,11 +3438,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3569,11 +3493,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3626,11 +3548,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>59085.8416945374</v>
+        <v>59085.8416945373</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3683,9 +3603,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>57765.9888004716</v>
       </c>
@@ -3740,9 +3658,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>58437.6863446631</v>
       </c>
@@ -3797,9 +3713,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>57765.9888004716</v>
       </c>
@@ -3854,11 +3768,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>74493.9271255061</v>
+        <v>74493.92712550609</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -3911,9 +3823,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>49428.4831634229</v>
       </c>
@@ -3968,11 +3878,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -4025,11 +3933,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -4082,11 +3988,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -4139,11 +4043,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -4196,11 +4098,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>58078.4677170219</v>
+        <v>58078.46771702191</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -4253,11 +4153,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>58078.4677170219</v>
+        <v>58078.46771702191</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -4310,11 +4208,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>74074.0740740741</v>
+        <v>74074.07407407409</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -4367,9 +4263,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>180000</v>
       </c>
@@ -4424,9 +4318,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>180000</v>
       </c>
@@ -4481,9 +4373,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>180000</v>
       </c>
@@ -4538,9 +4428,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>180000</v>
       </c>
@@ -4595,9 +4483,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>180000</v>
       </c>
@@ -4652,9 +4538,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>180000</v>
       </c>
@@ -4709,9 +4593,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>180000</v>
       </c>
@@ -4766,11 +4648,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -4823,9 +4703,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>78632.4786324786</v>
       </c>
@@ -4880,9 +4758,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>57918.5520361991</v>
       </c>
@@ -4937,11 +4813,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -4994,9 +4868,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>69478.9081885856</v>
       </c>
@@ -5051,9 +4923,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>63660.4774535809</v>
       </c>
@@ -5108,11 +4978,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -5165,11 +5033,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -5222,9 +5088,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>48582.995951417</v>
       </c>
@@ -5279,9 +5143,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>74270.5570291777</v>
       </c>
@@ -5336,9 +5198,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>180000</v>
       </c>
@@ -5393,9 +5253,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>180000</v>
       </c>
@@ -5450,9 +5308,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>180000</v>
       </c>
@@ -5507,9 +5363,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>180000</v>
       </c>
@@ -5564,9 +5418,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>180000</v>
       </c>
@@ -5621,9 +5473,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>180000</v>
       </c>
@@ -5678,9 +5528,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>180000</v>
       </c>
@@ -5735,9 +5583,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>180000</v>
       </c>
@@ -5792,9 +5638,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>180000</v>
       </c>
@@ -5817,55 +5661,108 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>Aurum Xinfa-Fiji</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.00500000000000005</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>66728.452270621</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Aurum Xinfa-Fiji wharf</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>SPIC</t>
         </is>
       </c>
-      <c r="B95" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.00500000000000005</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
+      <c r="B96" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.00500000000000005</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
         <v>180000</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>SPIC wharf</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
         <is>
           <t>CBIX LT</t>
         </is>
